--- a/資料/モデル天井数資料.xlsx
+++ b/資料/モデル天井数資料.xlsx
@@ -9,11 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8376"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8376" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="モデル" sheetId="1" r:id="rId1"/>
+    <sheet name="モデルタイプ" sheetId="2" r:id="rId2"/>
+    <sheet name="使用文字" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">モデルタイプ!$B$2:$C$33</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="118">
   <si>
     <t>モデル名</t>
     <rPh sb="3" eb="4">
@@ -74,12 +79,495 @@
     <t>たいや</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>タイプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貫通</t>
+    <rPh sb="0" eb="2">
+      <t>カンツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スピード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>跳ねる</t>
+    <rPh sb="0" eb="1">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノックバック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貫</t>
+    <rPh sb="0" eb="1">
+      <t>ヌキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>跳</t>
+    <rPh sb="0" eb="1">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>か</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>た</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>な</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>は</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ま</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>や</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>を</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>り</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>る</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>れ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ろ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゆ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>よ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>み</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>む</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>め</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>も</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>へ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>に</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぬ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ね</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>の</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>て</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>と</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>し</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>す</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>き</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>く</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>け</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>い</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>う</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>え</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未使用</t>
+    <rPh sb="0" eb="3">
+      <t>ミシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ないふ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たいこ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こいん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制作完未</t>
+    <rPh sb="0" eb="2">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ス</t>
+  </si>
+  <si>
+    <t>ノ</t>
+  </si>
+  <si>
+    <t>制作完成未完成</t>
+    <rPh sb="0" eb="2">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ミカンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <rPh sb="0" eb="2">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <rPh sb="0" eb="3">
+      <t>ミカンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たいこ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つくえ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>りんご</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総合</t>
+    <rPh sb="0" eb="2">
+      <t>ソウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデル合計数</t>
+    <rPh sb="3" eb="6">
+      <t>ゴウケイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイプ合計数</t>
+    <rPh sb="3" eb="6">
+      <t>ゴウケイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やかん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほうき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>らっぱ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やたい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かかし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かめら</t>
+  </si>
+  <si>
+    <t>たたみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぶらし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どかん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まくら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こっぷ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>るんば</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>らんす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かたな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とりい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほのお</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぽすと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だいや</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とけい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つらら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せっき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふとん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すぴあ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>くすり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あぶら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こえだ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がらす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>らんぷ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まりも</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とうふ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だんご</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おはぎ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふきや</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゆみや</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,16 +583,69 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -211,13 +752,341 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -236,6 +1105,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -244,12 +1173,192 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -527,27 +1636,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="2">
         <v>138</v>
       </c>
@@ -565,136 +1674,136 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="2">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="2">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="2">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="2">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="2">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="7"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="2" t="s">
         <v>1</v>
       </c>
@@ -722,4 +1831,1081 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="20.8984375" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" customWidth="1"/>
+    <col min="9" max="9" width="18.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="I2" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="29"/>
+    </row>
+    <row r="3" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="33"/>
+    </row>
+    <row r="4" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="33"/>
+    </row>
+    <row r="5" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="55"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="45"/>
+    </row>
+    <row r="9" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="56">
+        <f>COUNTIF(C:C,G3)</f>
+        <v>10</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="10">
+        <f>COUNTIF(D3:D33,I3)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="46">
+        <f>COUNTIF(C:C,G4)</f>
+        <v>12</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="16">
+        <f>COUNTIF(D:D,I4)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="56">
+        <f>COUNTIF(C:C,G5)</f>
+        <v>10</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="52">
+        <f>SUM(J9:J10)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="46">
+        <f>COUNTIF(C:C,G6)</f>
+        <v>11</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="47">
+        <f>SUM(G9:G12)</f>
+        <v>43</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B20" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B21" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B22" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B24" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B25" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B26" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B27" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B28" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B29" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B30" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B31" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B32" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B33" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B34" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B35" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B36" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B37" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B38" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B39" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B40" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B41" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B42" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B43" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B44" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B45" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B46" s="14"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="31"/>
+    </row>
+    <row r="47" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B47" s="14"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="31"/>
+    </row>
+    <row r="48" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B48" s="14"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="31"/>
+    </row>
+    <row r="49" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B49" s="14"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="31"/>
+    </row>
+    <row r="50" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B50" s="14"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="31"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:C33"/>
+  <mergeCells count="3">
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="F8:G8"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="ノ">
+      <formula>NOT(ISERROR(SEARCH("ノ",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="跳">
+      <formula>NOT(ISERROR(SEARCH("跳",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="ス">
+      <formula>NOT(ISERROR(SEARCH("ス",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="貫">
+      <formula>NOT(ISERROR(SEARCH("貫",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H12 C3:C50">
+      <formula1>$G$3:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D50">
+      <formula1>$I$3:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:N10"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="11" width="3.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A3" s="6"/>
+      <c r="B3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="11"/>
+      <c r="M3" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="13"/>
+    </row>
+    <row r="4" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="6"/>
+      <c r="B4" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="16"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" s="18"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A5" s="6"/>
+      <c r="B5" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A6" s="6"/>
+      <c r="B6" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="16"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+    </row>
+    <row r="7" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="6"/>
+      <c r="B7" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A8" s="6"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>